--- a/pred_ohlcv/54_21/2019-10-17 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 FNB ohlcv.xlsx
@@ -7100,7 +7100,7 @@
         <v>-1462031.566633724</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-1509940.757033724</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-1524126.322833724</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-1522216.988633724</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-1522216.988633724</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-1528577.827233724</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1588336.873933724</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-1473778.300133723</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1473622.991033723</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1473622.991033723</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1405292.395133724</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1408801.784733724</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1408801.784733724</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1378801.784733724</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1344601.784733724</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1345001.784733724</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1331109.533733724</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1355441.746533723</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1355422.510033723</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H338">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H340">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1288460.971633723</v>
       </c>
       <c r="H341">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H343">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1284057.092933723</v>
       </c>
       <c r="H344">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H345">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-842328.8386337233</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-920732.1705337234</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-737558.7706337235</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-754082.8752337234</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-698623.7258337234</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-743465.3528337234</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-743465.3528337234</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-756927.3556337234</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-757434.1123337235</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-165684.0146337235</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>17956.84332513873</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>333865.4810662766</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>437556.5541662766</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-5903.336533723399</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>20458.9190662766</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1871.385233723398</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1871.385233723398</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>146466.3933662766</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>131169.8161559317</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>147800.1609559317</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-231201.8742440683</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-144073.4802440683</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>562666.5541455869</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>343730.4158455869</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>387153.5623246467</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>554554.1428246468</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-952861.8243241488</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-900392.0384922806</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-956380.1817604125</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-956380.1817604125</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-913888.7359604125</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-946082.1759922807</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-998851.1660922808</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1075146.364192281</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-822796.9133922807</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-822996.9133922807</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-785293.2334922807</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-785293.2334922807</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-785283.2334922807</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-783308.4466922807</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2564056.074903547</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2623781.178603548</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3097411.1034912</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3417070.421206584</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3492645.044406584</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>3596054.660365768</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3680682.39837427</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3662049.620274269</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>3725886.681774269</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3870198.907165767</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3950941.504212661</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4234440.39971266</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3604238.02081266</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3604238.02081266</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>3416227.962106587</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>3024740.809806587</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2977149.883889652</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>3015475.818389652</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>3022030.060889652</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3018324.551006587</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3022496.228032394</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-17 FNB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 FNB ohlcv.xlsx
@@ -8166,7 +8166,7 @@
         <v>-1473778.300133723</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-1473956.991033723</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-1473622.991033723</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-1473622.991033723</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-1469988.260033723</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-1405292.395133724</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-1408801.784733724</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-1408801.784733724</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-1378801.784733724</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-1344601.784733724</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-1345001.784733724</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-1331109.533733724</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-1331109.533733724</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-1331137.533733724</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-1331127.533733724</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-1331170.533733724</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1323170.533733724</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-1338035.673533724</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-1338077.673533724</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-1308913.675733724</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-1324290.321733724</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-1309672.508033724</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-1309672.508033724</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-1309326.182533724</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-1309326.182533724</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-1321088.723233724</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-1330091.339233723</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-1344432.945933723</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-1355441.746533723</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-1355422.510033723</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-1361431.571033723</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-1358828.308833723</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-1288460.971633723</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-1289610.971633723</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-1284057.092933723</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-1255931.663733723</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-842328.8386337233</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-920732.1705337234</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-737558.7706337235</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-754082.8752337234</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-698623.7258337234</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-743465.3528337234</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-743465.3528337234</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>-756927.3556337234</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-757434.1123337235</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-165684.0146337235</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>17956.84332513873</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>333865.4810662766</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>437556.5541662766</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-5903.336533723399</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>20458.9190662766</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-1871.385233723398</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-1871.385233723398</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>146466.3933662766</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>131169.8161559317</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>147800.1609559317</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-231201.8742440683</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-144073.4802440683</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>562666.5541455869</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>343730.4158455869</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>387153.5623246467</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>554554.1428246468</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-952861.8243241488</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-900392.0384922806</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-956380.1817604125</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-956380.1817604125</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-913888.7359604125</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-946082.1759922807</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-998851.1660922808</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-1075146.364192281</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-822796.9133922807</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-822996.9133922807</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-785293.2334922807</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-785293.2334922807</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-785283.2334922807</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-783308.4466922807</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-681849.8586004126</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>2896862.282603547</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>2655778.911703547</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>2564056.074903547</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>2678076.416903547</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>2623781.178603548</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>2635783.553903548</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>2819260.277203548</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>2892140.439827637</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>2892140.439827637</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>2822690.660027637</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>2614662.687027637</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>2652588.635027637</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3371933.981027637</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3097411.1034912</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3466523.926054763</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3417070.421206584</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3492645.044406584</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>3603189.419065768</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>3596054.660365768</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3680682.39837427</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3662049.620274269</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>3725886.681774269</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>3870198.907165767</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>3950941.504212661</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>4234440.39971266</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>3604238.02081266</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>3604238.02081266</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>3352820.741406587</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>3416227.962106587</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>3024740.809806587</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>3058521.452389652</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>2977149.883889652</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>3015475.818389652</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>3022030.060889652</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>3058264.062206587</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>3018324.551006587</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>3022496.228032394</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>2931428.401432394</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>2940022.064132394</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>2939344.983232394</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>2977846.621232394</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
